--- a/Goose_6/TestRig/Power_Board_DRV8323/Project Outputs for Power_Board_DRV8323/BOM/Bill of Materials-Power_Board_DRV8323.xlsx
+++ b/Goose_6/TestRig/Power_Board_DRV8323/Project Outputs for Power_Board_DRV8323/BOM/Bill of Materials-Power_Board_DRV8323.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellen\Documents\GitHub\Motor-Control\Goose_6\TestRig\Power_Board_DRV8323\Project Outputs for Power_Board_DRV8323\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FA953C-C0DE-4406-A2F6-797F9B0E3632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80A8FA40-C261-4CA0-9E00-0DF21784A7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="28800" windowHeight="15435" xr2:uid="{947D2E58-92C2-40DD-8EF9-D7C320379D8C}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="28800" windowHeight="15435" xr2:uid="{5A35662D-E043-40A0-8715-F3445776B14F}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Power_Board_D" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="82">
   <si>
     <t>Designator</t>
   </si>
@@ -150,49 +150,64 @@
     <t>OCVZ0606 - CAPACITOR</t>
   </si>
   <si>
+    <t>Panasonic Electronic Components</t>
+  </si>
+  <si>
+    <t>EEE-FK2A331AM</t>
+  </si>
+  <si>
+    <t>PCE4867CT-ND</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>HDR1X3</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>HDR2X18</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>HDR1X2</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>1760510000</t>
+  </si>
+  <si>
+    <t>Weidmüller</t>
+  </si>
+  <si>
+    <t>281-1882-ND</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>1760520000</t>
+  </si>
+  <si>
+    <t>TE Connectivity AMP Connectors</t>
+  </si>
+  <si>
+    <t>282857-3</t>
+  </si>
+  <si>
+    <t>A98360-ND</t>
+  </si>
+  <si>
+    <t>Q1, Q2, Q3, Q4, Q5, Q6</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>HDR1X3</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>HDR2X18</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>HDR1X2</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>1760510000</t>
-  </si>
-  <si>
-    <t>Weidmüller</t>
-  </si>
-  <si>
-    <t>281-1882-ND</t>
-  </si>
-  <si>
-    <t>P5</t>
-  </si>
-  <si>
-    <t>1760520000</t>
-  </si>
-  <si>
-    <t>281-1883-ND</t>
-  </si>
-  <si>
-    <t>Q1, Q2, Q3, Q4, Q5, Q6</t>
   </si>
   <si>
     <t>PowerPAK® SO-8</t>
@@ -643,12 +658,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECBCA64F-9DB5-4925-B2B9-08AF20431331}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB4084E-2FCD-4EA9-9EAD-C0C7831AD6E2}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -827,13 +840,13 @@
         <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H7" s="1">
         <v>2</v>
@@ -841,11 +854,11 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -857,11 +870,11 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -873,11 +886,11 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -889,23 +902,23 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H11" s="1">
         <v>1</v>
@@ -913,23 +926,23 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H12" s="1">
         <v>1</v>
@@ -937,25 +950,25 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H13" s="1">
         <v>6</v>
@@ -963,25 +976,25 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H14" s="1">
         <v>2</v>
@@ -989,25 +1002,25 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H15" s="1">
         <v>3</v>
@@ -1015,25 +1028,25 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H16" s="1">
         <v>4</v>
@@ -1041,25 +1054,25 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H17" s="1">
         <v>4</v>
@@ -1067,23 +1080,23 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H18" s="1">
         <v>1</v>

--- a/Goose_6/TestRig/Power_Board_DRV8323/Project Outputs for Power_Board_DRV8323/BOM/Bill of Materials-Power_Board_DRV8323.xlsx
+++ b/Goose_6/TestRig/Power_Board_DRV8323/Project Outputs for Power_Board_DRV8323/BOM/Bill of Materials-Power_Board_DRV8323.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellen\Documents\GitHub\Motor-Control\Goose_6\TestRig\Power_Board_DRV8323\Project Outputs for Power_Board_DRV8323\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80A8FA40-C261-4CA0-9E00-0DF21784A7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{964BF654-0C74-47C8-B595-39DC2CEE4D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="28800" windowHeight="15435" xr2:uid="{5A35662D-E043-40A0-8715-F3445776B14F}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15435" xr2:uid="{5AE75963-92C6-4191-95CF-AC6C31CC2409}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Power_Board_D" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="83">
   <si>
     <t>Designator</t>
   </si>
@@ -117,13 +117,13 @@
     <t>1210 - Capacitor</t>
   </si>
   <si>
-    <t>Taiyo Yuden</t>
-  </si>
-  <si>
-    <t>HMK325C7475KN-TE</t>
-  </si>
-  <si>
-    <t>587-5038-1-ND</t>
+    <t>Holy Stone Enterprise Co., Ltd.</t>
+  </si>
+  <si>
+    <t>C1210X475K101T</t>
+  </si>
+  <si>
+    <t>2873-C1210X475K101TCT-ND</t>
   </si>
   <si>
     <t>C9, C11</t>
@@ -183,10 +183,13 @@
     <t>1760510000</t>
   </si>
   <si>
-    <t>Weidmüller</t>
-  </si>
-  <si>
-    <t>281-1882-ND</t>
+    <t>On Shore Technology Inc.</t>
+  </si>
+  <si>
+    <t>OSTTC022162</t>
+  </si>
+  <si>
+    <t>ED2609-ND</t>
   </si>
   <si>
     <t>P5</t>
@@ -658,7 +661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB4084E-2FCD-4EA9-9EAD-C0C7831AD6E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A17205B5-0A51-4104-B14A-A217D243F430}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -912,13 +915,13 @@
         <v>48</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H11" s="1">
         <v>1</v>
@@ -926,23 +929,23 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H12" s="1">
         <v>1</v>
@@ -950,25 +953,25 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H13" s="1">
         <v>6</v>
@@ -976,25 +979,25 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H14" s="1">
         <v>2</v>
@@ -1002,25 +1005,25 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H15" s="1">
         <v>3</v>
@@ -1028,25 +1031,25 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H16" s="1">
         <v>4</v>
@@ -1054,25 +1057,25 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H17" s="1">
         <v>4</v>
@@ -1080,23 +1083,23 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H18" s="1">
         <v>1</v>
